--- a/Tools/excel2json-master/referee_data.xlsx
+++ b/Tools/excel2json-master/referee_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,13 +87,17 @@
   </si>
   <si>
     <t>여러가지 설명을 써놓으면 유저가 재미로읽어볼수 있다아아아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채워넣어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -542,7 +546,9 @@
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
@@ -554,7 +560,9 @@
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="4">
@@ -566,7 +574,9 @@
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="4">
@@ -578,7 +588,9 @@
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="4">
@@ -590,7 +602,9 @@
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
